--- a/我的/测试用例计划.xlsx
+++ b/我的/测试用例计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -10,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,6 +33,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>放款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情，投资，支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标的购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台借款录入审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的投资列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的投资详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>定标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,102 +121,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>放款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标的列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台借款录入审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情，投资，支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标的购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的投资列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的投资详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款计划</t>
+    <t>后台订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资兑付，营销兑付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -163,15 +163,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -217,20 +216,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,24 +504,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="3" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -528,264 +529,271 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="12">
+        <v>10.9</v>
+      </c>
+      <c r="C4" s="12">
+        <v>10.9</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11">
-        <v>10.9</v>
-      </c>
-      <c r="C4" s="11">
-        <v>10.9</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
